--- a/model/Auswertung/mehrspaltiges Layout/Ergebnis_Molmo/results.xlsx
+++ b/model/Auswertung/mehrspaltiges Layout/Ergebnis_Molmo/results.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V8"/>
+  <dimension ref="A1:V9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -550,64 +550,64 @@
         <v>1357</v>
       </c>
       <c r="B2" t="n">
-        <v>771</v>
+        <v>1016</v>
       </c>
       <c r="C2" t="n">
-        <v>586</v>
+        <v>341</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="E2" t="n">
-        <v>0.4318</v>
+        <v>0.2579</v>
       </c>
       <c r="F2" t="n">
         <v>177</v>
       </c>
       <c r="G2" t="n">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="H2" t="n">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="I2" t="n">
-        <v>10</v>
+        <v>42</v>
       </c>
       <c r="J2" t="n">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="K2" t="n">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="L2" t="n">
-        <v>0.5989</v>
+        <v>0.7458</v>
       </c>
       <c r="M2" t="n">
-        <v>0.5198</v>
+        <v>0.6215000000000001</v>
       </c>
       <c r="N2" t="n">
-        <v>0.8901</v>
+        <v>0.6744</v>
       </c>
       <c r="O2" t="n">
-        <v>0.9643</v>
+        <v>0.7373</v>
       </c>
       <c r="P2" t="n">
-        <v>0.4576</v>
+        <v>0.4915</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.4765</v>
+        <v>0.5241</v>
       </c>
       <c r="R2" t="n">
-        <v>0.6045</v>
+        <v>0.5686</v>
       </c>
       <c r="S2" t="n">
-        <v>0.6378</v>
+        <v>0.6127</v>
       </c>
       <c r="T2" t="n">
-        <v>0.5048</v>
+        <v>0.4624</v>
       </c>
       <c r="U2" t="n">
-        <v>0.2288</v>
+        <v>0.2818</v>
       </c>
       <c r="V2" t="inlineStr">
         <is>
@@ -620,64 +620,64 @@
         <v>1516</v>
       </c>
       <c r="B3" t="n">
-        <v>333</v>
+        <v>1406</v>
       </c>
       <c r="C3" t="n">
-        <v>1183</v>
+        <v>110</v>
       </c>
       <c r="D3" t="n">
-        <v>12</v>
+        <v>137</v>
       </c>
       <c r="E3" t="n">
-        <v>0.7883</v>
+        <v>0.1629</v>
       </c>
       <c r="F3" t="n">
         <v>214</v>
       </c>
       <c r="G3" t="n">
-        <v>36</v>
+        <v>130</v>
       </c>
       <c r="H3" t="n">
-        <v>178</v>
+        <v>84</v>
       </c>
       <c r="I3" t="n">
-        <v>19</v>
+        <v>97</v>
       </c>
       <c r="J3" t="n">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="K3" t="n">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="L3" t="n">
-        <v>0.9206</v>
+        <v>0.8458</v>
       </c>
       <c r="M3" t="n">
-        <v>0.8925</v>
+        <v>0.7243000000000001</v>
       </c>
       <c r="N3" t="n">
-        <v>0.6545</v>
+        <v>0.5727</v>
       </c>
       <c r="O3" t="n">
-        <v>0.6923</v>
+        <v>0.6075</v>
       </c>
       <c r="P3" t="n">
-        <v>0.1682</v>
+        <v>0.6075</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.1706</v>
+        <v>0.6468</v>
       </c>
       <c r="R3" t="n">
-        <v>0.2677</v>
+        <v>0.5896</v>
       </c>
       <c r="S3" t="n">
-        <v>0.2738</v>
+        <v>0.6264999999999999</v>
       </c>
       <c r="T3" t="n">
-        <v>0.1586</v>
+        <v>0.4797</v>
       </c>
       <c r="U3" t="n">
-        <v>0.0115</v>
+        <v>0.2023</v>
       </c>
       <c r="V3" t="inlineStr">
         <is>
@@ -690,64 +690,64 @@
         <v>939</v>
       </c>
       <c r="B4" t="n">
-        <v>759</v>
+        <v>751</v>
       </c>
       <c r="C4" t="n">
-        <v>180</v>
+        <v>188</v>
       </c>
       <c r="D4" t="n">
-        <v>2</v>
+        <v>22</v>
       </c>
       <c r="E4" t="n">
-        <v>0.1938</v>
+        <v>0.2236</v>
       </c>
       <c r="F4" t="n">
         <v>127</v>
       </c>
       <c r="G4" t="n">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="H4" t="n">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="I4" t="n">
-        <v>15</v>
+        <v>32</v>
       </c>
       <c r="J4" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="K4" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="L4" t="n">
-        <v>0.378</v>
+        <v>0.5433</v>
       </c>
       <c r="M4" t="n">
-        <v>0.2835</v>
+        <v>0.4961</v>
       </c>
       <c r="N4" t="n">
-        <v>0.8624000000000001</v>
+        <v>0.7377</v>
       </c>
       <c r="O4" t="n">
-        <v>0.9126</v>
+        <v>0.7563</v>
       </c>
       <c r="P4" t="n">
-        <v>0.7402</v>
+        <v>0.7087</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.7769</v>
+        <v>0.7258</v>
       </c>
       <c r="R4" t="n">
-        <v>0.7966</v>
+        <v>0.7229</v>
       </c>
       <c r="S4" t="n">
-        <v>0.8393</v>
+        <v>0.7407</v>
       </c>
       <c r="T4" t="n">
-        <v>0.7889</v>
+        <v>0.6019</v>
       </c>
       <c r="U4" t="n">
-        <v>0.4357</v>
+        <v>0.3782</v>
       </c>
       <c r="V4" t="inlineStr">
         <is>
@@ -757,279 +757,349 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>1876</v>
+        <v>740</v>
       </c>
       <c r="B5" t="n">
-        <v>1767</v>
+        <v>706</v>
       </c>
       <c r="C5" t="n">
-        <v>109</v>
+        <v>34</v>
       </c>
       <c r="D5" t="n">
-        <v>494</v>
+        <v>5</v>
       </c>
       <c r="E5" t="n">
-        <v>0.3214</v>
+        <v>0.0527</v>
       </c>
       <c r="F5" t="n">
-        <v>305</v>
+        <v>97</v>
       </c>
       <c r="G5" t="n">
-        <v>210</v>
+        <v>69</v>
       </c>
       <c r="H5" t="n">
-        <v>95</v>
+        <v>28</v>
       </c>
       <c r="I5" t="n">
-        <v>116</v>
+        <v>23</v>
       </c>
       <c r="J5" t="n">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="K5" t="n">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="L5" t="n">
-        <v>0.6918</v>
+        <v>0.5258</v>
       </c>
       <c r="M5" t="n">
-        <v>0.541</v>
+        <v>0.134</v>
       </c>
       <c r="N5" t="n">
-        <v>0.6442</v>
+        <v>0.75</v>
       </c>
       <c r="O5" t="n">
-        <v>0.6931</v>
+        <v>0.9452</v>
       </c>
       <c r="P5" t="n">
-        <v>0.6885</v>
+        <v>0.7113</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.7447</v>
+        <v>0.8846000000000001</v>
       </c>
       <c r="R5" t="n">
-        <v>0.6656</v>
+        <v>0.7302</v>
       </c>
       <c r="S5" t="n">
-        <v>0.7179</v>
+        <v>0.9139</v>
       </c>
       <c r="T5" t="n">
-        <v>0.462</v>
+        <v>0.6712</v>
       </c>
       <c r="U5" t="n">
-        <v>0.2342</v>
+        <v>0.4809</v>
       </c>
       <c r="V5" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>8</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>869</v>
+        <v>1876</v>
       </c>
       <c r="B6" t="n">
-        <v>821</v>
+        <v>1529</v>
       </c>
       <c r="C6" t="n">
-        <v>48</v>
+        <v>347</v>
       </c>
       <c r="D6" t="n">
-        <v>979</v>
+        <v>8</v>
       </c>
       <c r="E6" t="n">
-        <v>1.1818</v>
+        <v>0.1892</v>
       </c>
       <c r="F6" t="n">
-        <v>148</v>
+        <v>305</v>
       </c>
       <c r="G6" t="n">
-        <v>39</v>
+        <v>211</v>
       </c>
       <c r="H6" t="n">
-        <v>109</v>
+        <v>94</v>
       </c>
       <c r="I6" t="n">
-        <v>187</v>
+        <v>29</v>
       </c>
       <c r="J6" t="n">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="K6" t="n">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="L6" t="n">
-        <v>2</v>
+        <v>0.4033</v>
       </c>
       <c r="M6" t="n">
-        <v>1.7027</v>
+        <v>0.3082</v>
       </c>
       <c r="N6" t="n">
-        <v>0.1726</v>
+        <v>0.8792</v>
       </c>
       <c r="O6" t="n">
-        <v>0.1902</v>
+        <v>0.9336</v>
       </c>
       <c r="P6" t="n">
-        <v>0.2635</v>
+        <v>0.6918</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.312</v>
+        <v>0.7276</v>
       </c>
       <c r="R6" t="n">
-        <v>0.2086</v>
+        <v>0.7743</v>
       </c>
       <c r="S6" t="n">
-        <v>0.2364</v>
+        <v>0.8178</v>
       </c>
       <c r="T6" t="n">
-        <v>0.303</v>
+        <v>0.6833</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>0.2988</v>
       </c>
       <c r="V6" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>1637</v>
+        <v>869</v>
       </c>
       <c r="B7" t="n">
-        <v>922</v>
+        <v>850</v>
       </c>
       <c r="C7" t="n">
-        <v>715</v>
+        <v>19</v>
       </c>
       <c r="D7" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="E7" t="n">
-        <v>0.4374</v>
+        <v>0.0311</v>
       </c>
       <c r="F7" t="n">
-        <v>259</v>
+        <v>148</v>
       </c>
       <c r="G7" t="n">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="H7" t="n">
-        <v>111</v>
+        <v>5</v>
       </c>
       <c r="I7" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J7" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K7" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L7" t="n">
-        <v>0.4517</v>
+        <v>0.06759999999999999</v>
       </c>
       <c r="M7" t="n">
-        <v>0.4286</v>
+        <v>0.0405</v>
       </c>
       <c r="N7" t="n">
-        <v>0.961</v>
+        <v>0.9661999999999999</v>
       </c>
       <c r="O7" t="n">
-        <v>0.9801</v>
+        <v>0.9795</v>
       </c>
       <c r="P7" t="n">
-        <v>0.5714</v>
+        <v>0.9661999999999999</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.5780999999999999</v>
+        <v>0.9795</v>
       </c>
       <c r="R7" t="n">
-        <v>0.7167</v>
+        <v>0.9661999999999999</v>
       </c>
       <c r="S7" t="n">
-        <v>0.7272999999999999</v>
+        <v>0.9795</v>
       </c>
       <c r="T7" t="n">
-        <v>0.698</v>
+        <v>0.9675</v>
       </c>
       <c r="U7" t="n">
-        <v>0.1946</v>
+        <v>0.829</v>
       </c>
       <c r="V7" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
+        <v>1637</v>
+      </c>
+      <c r="B8" t="n">
+        <v>1291</v>
+      </c>
+      <c r="C8" t="n">
+        <v>346</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0.2114</v>
+      </c>
+      <c r="F8" t="n">
+        <v>259</v>
+      </c>
+      <c r="G8" t="n">
+        <v>212</v>
+      </c>
+      <c r="H8" t="n">
+        <v>47</v>
+      </c>
+      <c r="I8" t="n">
+        <v>17</v>
+      </c>
+      <c r="J8" t="n">
+        <v>15</v>
+      </c>
+      <c r="K8" t="n">
+        <v>15</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0.2471</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0.1313</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0.9258</v>
+      </c>
+      <c r="O8" t="n">
+        <v>0.9907</v>
+      </c>
+      <c r="P8" t="n">
+        <v>0.8185</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>0.8689</v>
+      </c>
+      <c r="R8" t="n">
+        <v>0.8689</v>
+      </c>
+      <c r="S8" t="n">
+        <v>0.9258</v>
+      </c>
+      <c r="T8" t="n">
+        <v>0.8349</v>
+      </c>
+      <c r="U8" t="n">
+        <v>0.4798</v>
+      </c>
+      <c r="V8" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
         <v>766</v>
       </c>
-      <c r="B8" t="n">
-        <v>466</v>
-      </c>
-      <c r="C8" t="n">
-        <v>300</v>
-      </c>
-      <c r="D8" t="n">
-        <v>949</v>
-      </c>
-      <c r="E8" t="n">
-        <v>1.6305</v>
-      </c>
-      <c r="F8" t="n">
+      <c r="B9" t="n">
+        <v>753</v>
+      </c>
+      <c r="C9" t="n">
+        <v>13</v>
+      </c>
+      <c r="D9" t="n">
+        <v>16</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0.0379</v>
+      </c>
+      <c r="F9" t="n">
         <v>129</v>
       </c>
-      <c r="G8" t="n">
-        <v>0</v>
-      </c>
-      <c r="H8" t="n">
-        <v>129</v>
-      </c>
-      <c r="I8" t="n">
-        <v>192</v>
-      </c>
-      <c r="J8" t="n">
-        <v>39</v>
-      </c>
-      <c r="K8" t="n">
+      <c r="G9" t="n">
+        <v>124</v>
+      </c>
+      <c r="H9" t="n">
+        <v>5</v>
+      </c>
+      <c r="I9" t="n">
+        <v>11</v>
+      </c>
+      <c r="J9" t="n">
         <v>3</v>
       </c>
-      <c r="L8" t="n">
-        <v>2.4884</v>
-      </c>
-      <c r="M8" t="n">
-        <v>2.1628</v>
-      </c>
-      <c r="N8" t="n">
-        <v>0</v>
-      </c>
-      <c r="O8" t="n">
-        <v>0</v>
-      </c>
-      <c r="P8" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q8" t="n">
-        <v>0</v>
-      </c>
-      <c r="R8" t="n">
-        <v>0</v>
-      </c>
-      <c r="S8" t="n">
-        <v>0</v>
-      </c>
-      <c r="T8" t="n">
-        <v>0</v>
-      </c>
-      <c r="U8" t="n">
-        <v>0</v>
-      </c>
-      <c r="V8" t="inlineStr">
+      <c r="K9" t="n">
+        <v>3</v>
+      </c>
+      <c r="L9" t="n">
+        <v>0.124</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0.0775</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0.9185</v>
+      </c>
+      <c r="O9" t="n">
+        <v>0.9394</v>
+      </c>
+      <c r="P9" t="n">
+        <v>0.9612000000000001</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>0.9841</v>
+      </c>
+      <c r="R9" t="n">
+        <v>0.9394</v>
+      </c>
+      <c r="S9" t="n">
+        <v>0.9612000000000001</v>
+      </c>
+      <c r="T9" t="n">
+        <v>0.9019</v>
+      </c>
+      <c r="U9" t="n">
+        <v>0.8119</v>
+      </c>
+      <c r="V9" t="inlineStr">
         <is>
           <t>1</t>
         </is>
